--- a/Project/Electrified Reactor/parameters.xlsx
+++ b/Project/Electrified Reactor/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\repos_python\Project\Electrified Reactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEC8FBA-813B-4BC3-8033-6E344F3358DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0810FBD-48FF-4E4D-BCFF-52D2666ECF8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,19 +35,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ht</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exp Tmax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exp t_p</t>
+    <t>exp Tavg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="B11:F12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,14 +389,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -412,20 +398,13 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <v>0.68367555000000002</v>
+        <v>954.4</v>
       </c>
       <c r="D2">
-        <v>9.9727990000000002E-2</v>
-      </c>
-      <c r="E2">
-        <v>954.4</v>
-      </c>
-      <c r="F2">
-        <f>0.3</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>767.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -433,20 +412,13 @@
         <v>40</v>
       </c>
       <c r="C3">
-        <v>0.49379606999999998</v>
+        <v>1140.3</v>
       </c>
       <c r="D3">
-        <v>5.6654059999999999E-2</v>
-      </c>
-      <c r="E3">
-        <v>1140.3</v>
-      </c>
-      <c r="F3">
-        <f>0.26/0.6</f>
-        <v>0.43333333333333335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>792.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.01</v>
       </c>
@@ -454,20 +426,13 @@
         <v>45</v>
       </c>
       <c r="C4">
-        <v>0.43373376000000002</v>
+        <v>1324.3</v>
       </c>
       <c r="D4">
-        <v>4.3447659999999999E-2</v>
-      </c>
-      <c r="E4">
-        <v>1324.3</v>
-      </c>
-      <c r="F4">
-        <f>0.32/0.6</f>
-        <v>0.53333333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>820.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.01</v>
       </c>
@@ -475,20 +440,13 @@
         <v>50</v>
       </c>
       <c r="C5">
-        <v>0.42952869999999999</v>
+        <v>1480.1</v>
       </c>
       <c r="D5">
-        <v>2.8498160000000002E-2</v>
-      </c>
-      <c r="E5">
-        <v>1480.1</v>
-      </c>
-      <c r="F5">
-        <f>0.5/0.6</f>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.01</v>
       </c>
@@ -496,19 +454,13 @@
         <v>55</v>
       </c>
       <c r="C6">
-        <v>0.43527676999999998</v>
+        <v>1627.5</v>
       </c>
       <c r="D6">
-        <v>2.6449440000000001E-2</v>
-      </c>
-      <c r="E6">
-        <v>1627.5</v>
-      </c>
-      <c r="F6">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>908.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.01</v>
       </c>
@@ -516,261 +468,273 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>0.42373505</v>
+        <v>1827.8</v>
       </c>
       <c r="D7">
-        <v>2.511246E-2</v>
-      </c>
-      <c r="E7">
-        <v>1827.8</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="B8" s="1">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.7361268299999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.40002177999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>832.8</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="B9" s="1">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.98064947000000002</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.10178651</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1018.5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>982.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.01</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>1947.8</v>
+      </c>
+      <c r="D8">
+        <v>998.4</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.01</v>
+      </c>
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>2025.6</v>
+      </c>
+      <c r="D9">
+        <v>1003.2</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.02</v>
       </c>
-      <c r="B10" s="1">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.77233156000000003</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6.6155500000000006E-2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1235.8</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>832.8</v>
+      </c>
+      <c r="D10">
+        <v>736.5</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.02</v>
       </c>
-      <c r="B11" s="1">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.71541823999999998</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4.8500090000000003E-2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1453.4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>1018.5</v>
+      </c>
+      <c r="D11">
+        <v>769.6</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.02</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>1235.8</v>
+      </c>
+      <c r="D12">
+        <v>821.1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>1453.4</v>
+      </c>
+      <c r="D13">
+        <v>917.3</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B14">
         <v>45</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.65055205000000005</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3.4819839999999998E-2</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C14">
         <v>1748.5</v>
       </c>
-      <c r="F12" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="B13" s="1">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.2010070599999998</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.33021819000000002</v>
-      </c>
-      <c r="E13" s="1">
-        <v>878.2</v>
-      </c>
-      <c r="F13" s="1">
-        <f>0.156*2</f>
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="B14" s="1">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.3788697700000001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.14506701</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1140.4000000000001</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>979.1</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="B15" s="1">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.1577711500000001</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8.6869130000000003E-2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1487.3</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>1988.1</v>
+      </c>
+      <c r="D15">
+        <v>1014</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0.06</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>878.2</v>
+      </c>
+      <c r="D16">
+        <v>741</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>1140.4000000000001</v>
+      </c>
+      <c r="D17">
+        <v>800.4</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>1487.3</v>
+      </c>
+      <c r="D18">
+        <v>899.3</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B19">
         <v>35</v>
       </c>
-      <c r="C16" s="1">
-        <v>1.1512904399999999</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6.476585E-2</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C19">
         <v>1816.2</v>
       </c>
-      <c r="F16" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="D19">
+        <v>990.1</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>0.11</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
-        <v>1.4123647800000001</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.31582028000000001</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C20">
         <v>873.2</v>
       </c>
-      <c r="F17" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="D20">
+        <v>742.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>0.11</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C18" s="1">
-        <v>1.3019665899999999</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.14690032</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C21">
         <v>1142.5999999999999</v>
       </c>
-      <c r="F18" s="1">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="D21">
+        <v>817.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>0.11</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B22">
         <v>25</v>
       </c>
-      <c r="C19" s="1">
-        <v>1.3548482900000001</v>
-      </c>
-      <c r="D19" s="1">
-        <v>9.2394130000000005E-2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1477.6</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.91</v>
+      <c r="C22">
+        <v>1477.8</v>
+      </c>
+      <c r="D22">
+        <v>946.2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/Electrified Reactor/parameters.xlsx
+++ b/Project/Electrified Reactor/parameters.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\repos_python\Project\Electrified Reactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0810FBD-48FF-4E4D-BCFF-52D2666ECF8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6376189D-3164-4540-A64A-2C0FB7B2BB53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,12 +43,48 @@
     <t>exp Tavg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>kh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outlier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intercept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2.20232527 1.93726087 0.04981884 0.0055305 0.01857787]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +99,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,11 +135,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -103,6 +161,2854 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$15:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5122611399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2356109900000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.18414255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4F58-4137-90B5-CC84865CA333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8181818181818181E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5384615384615385E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4285714285714285E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.70532271999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50279980000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43933242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43206550999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43714094999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42645124000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45082712000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49105293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4F58-4137-90B5-CC84865CA333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0030676300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79065830999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73298279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65754561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65517417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4F58-4137-90B5-CC84865CA333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1465692207"/>
+        <c:axId val="1467169615"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$55:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.44228223418741397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44242068345989832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44266657606427146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44310310015925231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44387743735278667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44524910081972785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44767289018985046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45193724142375924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45938272136943759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47221060574239471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49381344353073475</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52883304847549106</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58223821971848744</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65654392409494355</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74774123246842827</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84389735633121532</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93033281155535896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9975761550590152</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0442444034440659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0741249487493276</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0922809479963087</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1029640161379357</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1091314711614539</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1126529480273446</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1146509760886341</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1157805648884822</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1164178851059534</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.116777052960203</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1169793347340482</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.11709321751511</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1171573193447129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4F58-4137-90B5-CC84865CA333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="1905" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$55:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$55:$C$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.65008864979035519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65153454659994559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65342173321482955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65588156165670652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65908214453425773</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66323701320566752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66861466840319739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67554822968020889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68444361750848559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69578355765776856</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71012318425490017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72807134997176715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75025055811956898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77722895966440053</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80942194613119445</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84697024753166472</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88961597315069985</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93661329933274795</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98671698408948405</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0382789905018761</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.089448965723212</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1384317718607651</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1837291410214461</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2242999660771317</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2596097330142004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2895814570784785</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3144866288013253</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3348184540132615</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3511781163183065</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3641889444405373</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.374440757380295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4F58-4137-90B5-CC84865CA333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$55:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$55:$D$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.1799381513812888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1799845753874221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1800496330247774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1801407988120873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1802685410605107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1804475166846984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1806982387145279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1810493995273779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1815410998206948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1822293210935466</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1831920904841906</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1845379196059103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1864172415433072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1890376879320748</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1926840617891317</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1977436094654643</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2047363743243857</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.214348513359675</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2274627208900333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2451734805318957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2687654636133125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.299622916331872</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3390332668851304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3878637175796509</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4461426678934421</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5126694038196657</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5848592153464114</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6590121146472514</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7310105173229244</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7971943026971129</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8550420120664368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-4F58-4137-90B5-CC84865CA333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1465692207"/>
+        <c:axId val="1467169615"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1465692207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1467169615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1467169615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465692207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="1905" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8181818181818181E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5384615384615385E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4285714285714285E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.1978469999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2738700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8612149999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1869179999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1590560000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.806089E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9999240000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2837059999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4D4E-4DBE-9BCB-653327199DCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$10:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.5498270000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4544790000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7778170000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6565600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8921840000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4D4E-4DBE-9BCB-653327199DCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$15:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$15:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.10179361000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.055779E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.345573E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4D4E-4DBE-9BCB-653327199DCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1465692207"/>
+        <c:axId val="1467169615"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1465692207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1467169615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1467169615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1465692207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="1905" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="차트 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1E0FDE-EDE2-4BDF-9D7F-2072C43935F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="차트 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D99387-D3E9-4149-B54B-113B80CB807A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,15 +3274,1565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.01</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>954.4</v>
+      </c>
+      <c r="D2">
+        <v>767.4</v>
+      </c>
+      <c r="E2">
+        <v>0.70532271999999996</v>
+      </c>
+      <c r="F2">
+        <v>4.1978469999999997E-2</v>
+      </c>
+      <c r="H2">
+        <f>1/B2</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="I2">
+        <f>$C$32/(1+$C$33*EXP(-(H2-$C$34)/$C$35))+0.44</f>
+        <v>0.58956841740101618</v>
+      </c>
+      <c r="J2">
+        <v>0.70532271999999996</v>
+      </c>
+      <c r="O2">
+        <v>1.4279999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>1140.3</v>
+      </c>
+      <c r="D3">
+        <v>792.7</v>
+      </c>
+      <c r="E3">
+        <v>0.50279980000000002</v>
+      </c>
+      <c r="F3">
+        <v>3.2738700000000003E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:J17" si="0">1/B3</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="1">$C$32/(1+$C$33*EXP(-(H3-$C$34)/$C$35))+0.44</f>
+        <v>0.50472201425490026</v>
+      </c>
+      <c r="J3">
+        <v>0.50279980000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.01</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>1324.3</v>
+      </c>
+      <c r="D4">
+        <v>820.8</v>
+      </c>
+      <c r="E4">
+        <v>0.43933242</v>
+      </c>
+      <c r="F4">
+        <v>2.8612149999999999E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.47193848203641903</v>
+      </c>
+      <c r="J4">
+        <v>0.43933242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.01</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>1480.1</v>
+      </c>
+      <c r="D5">
+        <v>876</v>
+      </c>
+      <c r="E5">
+        <v>0.43206550999999999</v>
+      </c>
+      <c r="F5">
+        <v>2.1869179999999998E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.45783584320566756</v>
+      </c>
+      <c r="J5">
+        <v>0.43206550999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.01</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>1627.5</v>
+      </c>
+      <c r="D6">
+        <v>908.8</v>
+      </c>
+      <c r="E6">
+        <v>0.43714094999999997</v>
+      </c>
+      <c r="F6">
+        <v>2.1590560000000002E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.45100162026221957</v>
+      </c>
+      <c r="J6">
+        <v>0.43714094999999997</v>
+      </c>
+      <c r="N6">
+        <f>N7+(N7-N8)</f>
+        <v>3.214285714285714E-2</v>
+      </c>
+      <c r="O6">
+        <f>O7+(O7-O8)</f>
+        <v>0.9078456399999999</v>
+      </c>
+      <c r="P6" s="4" t="e">
+        <f>$L$13/(1+$L$14*EXP(-(N6-$L$15)/$L$16))+$L$17</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.01</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>1827.8</v>
+      </c>
+      <c r="D7">
+        <v>982.6</v>
+      </c>
+      <c r="E7">
+        <v>0.42645124000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.806089E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.44733504008912733</v>
+      </c>
+      <c r="J7">
+        <v>0.42645124000000001</v>
+      </c>
+      <c r="N7">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="O7">
+        <v>0.70532271999999996</v>
+      </c>
+      <c r="P7" s="4" t="e">
+        <f>$L$13/(1+$L$14*EXP(-(N7-$L$15)/$L$16))+$L$17</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.01</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>1947.8</v>
+      </c>
+      <c r="D8">
+        <v>998.4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.45082712000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.9999240000000001E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.44519844212693666</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.45082712000000003</v>
+      </c>
+      <c r="N8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O8">
+        <v>0.50279980000000002</v>
+      </c>
+      <c r="P8" s="4" t="e">
+        <f t="shared" ref="P8:P14" si="2">$L$13/(1+$L$14*EXP(-(N8-$L$15)/$L$16))+$L$17</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.01</v>
+      </c>
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>2025.6</v>
+      </c>
+      <c r="D9">
+        <v>1003.2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.49105293</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.2837059999999999E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.44386737958655148</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.49105293</v>
+      </c>
+      <c r="N9">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="O9">
+        <v>0.43933242</v>
+      </c>
+      <c r="P9" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>1018.5</v>
+      </c>
+      <c r="D10">
+        <v>769.6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.0030676300000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.5498270000000006E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I10">
+        <f>$C$32/(1+$C$33*EXP(-(H10-$C$34)/$C$35))+$C$36</f>
+        <v>1.0038318630048662</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.0030676300000001</v>
+      </c>
+      <c r="N10">
+        <v>0.02</v>
+      </c>
+      <c r="O10">
+        <v>0.43206550999999999</v>
+      </c>
+      <c r="P10" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1235.8</v>
+      </c>
+      <c r="D11">
+        <v>821.1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.79065830999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.4544790000000001E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11:I17" si="3">$C$32/(1+$C$33*EXP(-(H11-$C$34)/$C$35))+$C$36</f>
+        <v>0.7949695874010162</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.79065830999999998</v>
+      </c>
+      <c r="N11">
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.43714094999999997</v>
+      </c>
+      <c r="P11" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>1453.4</v>
+      </c>
+      <c r="D12">
+        <v>917.3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.73298279</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.7778170000000001E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.71012318425490017</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.73298279</v>
+      </c>
+      <c r="N12">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.42645124000000001</v>
+      </c>
+      <c r="P12" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>1748.5</v>
+      </c>
+      <c r="D13">
+        <v>979.1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.65754561</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.6565600000000002E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.67733965203641899</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.65754561</v>
+      </c>
+      <c r="N13">
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.45082712000000003</v>
+      </c>
+      <c r="P13" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>1988.1</v>
+      </c>
+      <c r="D14">
+        <v>1014</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.65517417</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.8921840000000001E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.66323701320566752</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.65517417</v>
+      </c>
+      <c r="N14">
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.49105293</v>
+      </c>
+      <c r="P14" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>1140.4000000000001</v>
+      </c>
+      <c r="D15">
+        <v>800.4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.5122611399999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.10179361000000001</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1.2895814570784785</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.5122611399999999</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>1487.3</v>
+      </c>
+      <c r="D16">
+        <v>899.3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.2356109900000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6.055779E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1.0038318630048662</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.2356109900000001</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B17">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>1816.2</v>
+      </c>
+      <c r="D17">
+        <v>990.1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.18414255</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.345573E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.7949695874010162</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.18414255</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.02</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>832.8</v>
+      </c>
+      <c r="D20">
+        <v>736.5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.80530827</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.32095793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>878.2</v>
+      </c>
+      <c r="D21">
+        <v>741</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.88050234</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.41696353000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>873.2</v>
+      </c>
+      <c r="D22">
+        <v>742.9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.39297685999999998</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.35586413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>1142.5999999999999</v>
+      </c>
+      <c r="D23">
+        <v>817.6</v>
+      </c>
+      <c r="E23">
+        <v>1.6233070199999999</v>
+      </c>
+      <c r="F23" s="3">
+        <v>9.8702070000000003E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>1477.8</v>
+      </c>
+      <c r="D24">
+        <v>946.2</v>
+      </c>
+      <c r="E24">
+        <v>1.53921201</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6.1337580000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H31" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0.67513584999999998</v>
+      </c>
+      <c r="C32">
+        <v>0.76408604999999996</v>
+      </c>
+      <c r="D32">
+        <v>0.88073082000000003</v>
+      </c>
+      <c r="H32">
+        <v>2.1390315000000002</v>
+      </c>
+      <c r="I32">
+        <v>2.1390133100000002</v>
+      </c>
+      <c r="J32">
+        <v>2.1390133100000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1.48</v>
+      </c>
+      <c r="C33">
+        <v>1.47997307</v>
+      </c>
+      <c r="D33">
+        <v>1.48</v>
+      </c>
+      <c r="H33">
+        <v>1.8069727900000001</v>
+      </c>
+      <c r="I33">
+        <v>1.8069929600000001</v>
+      </c>
+      <c r="J33">
+        <v>1.8069929600000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>2.8648159999999999E-2</v>
+      </c>
+      <c r="C34">
+        <v>3.2342570000000001E-2</v>
+      </c>
+      <c r="D34">
+        <v>4.0314999999999997E-2</v>
+      </c>
+      <c r="H34">
+        <v>4.9002520000000001E-2</v>
+      </c>
+      <c r="I34">
+        <v>4.527312E-2</v>
+      </c>
+      <c r="J34">
+        <v>5.286424E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1.7392499999999999E-3</v>
+      </c>
+      <c r="C35">
+        <v>3.6933600000000001E-3</v>
+      </c>
+      <c r="D35">
+        <v>2.9622300000000002E-3</v>
+      </c>
+      <c r="H35">
+        <v>5.2354899999999998E-3</v>
+      </c>
+      <c r="I35">
+        <v>3.7911300000000002E-3</v>
+      </c>
+      <c r="J35">
+        <v>4.1425999999999998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0.44210398000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.64540116999999997</v>
+      </c>
+      <c r="D36">
+        <v>1.1798225200000001</v>
+      </c>
+      <c r="H36">
+        <v>1.9109029999999999E-2</v>
+      </c>
+      <c r="I36">
+        <v>2.6422259999999999E-2</v>
+      </c>
+      <c r="J36">
+        <v>5.0032889999999997E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B55">
+        <f>$B$32/(1+$B$33*EXP(-(A55-$B$34)/$B$35))+$B$36</f>
+        <v>0.44228223418741397</v>
+      </c>
+      <c r="C55">
+        <f>$C$32/(1+$C$33*EXP(-(A55-$C$34)/$C$35))+$C$36</f>
+        <v>0.65008864979035519</v>
+      </c>
+      <c r="D55">
+        <f>$D$32/(1+$D$33*EXP(-(A55-$D$34)/$D$35))+$D$36</f>
+        <v>1.1799381513812888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1.6E-2</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:B85" si="4">$B$32/(1+$B$33*EXP(-(A56-$B$34)/$B$35))+$B$36</f>
+        <v>0.44242068345989832</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:C85" si="5">$C$32/(1+$C$33*EXP(-(A56-$C$34)/$C$35))+$C$36</f>
+        <v>0.65153454659994559</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:D85" si="6">$D$32/(1+$D$33*EXP(-(A56-$D$34)/$D$35))+$D$36</f>
+        <v>1.1799845753874221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="4"/>
+        <v>0.44266657606427146</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="5"/>
+        <v>0.65342173321482955</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="6"/>
+        <v>1.1800496330247774</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="4"/>
+        <v>0.44310310015925231</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="5"/>
+        <v>0.65588156165670652</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="6"/>
+        <v>1.1801407988120873</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1.9E-2</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="4"/>
+        <v>0.44387743735278667</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="5"/>
+        <v>0.65908214453425773</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="6"/>
+        <v>1.1802685410605107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0.02</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="4"/>
+        <v>0.44524910081972785</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="5"/>
+        <v>0.66323701320566752</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="6"/>
+        <v>1.1804475166846984</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="4"/>
+        <v>0.44767289018985046</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="5"/>
+        <v>0.66861466840319739</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="6"/>
+        <v>1.1806982387145279</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="4"/>
+        <v>0.45193724142375924</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="5"/>
+        <v>0.67554822968020889</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="6"/>
+        <v>1.1810493995273779</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2.3E-2</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="4"/>
+        <v>0.45938272136943759</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="5"/>
+        <v>0.68444361750848559</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="6"/>
+        <v>1.1815410998206948</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2.4E-2</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="4"/>
+        <v>0.47221060574239471</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="5"/>
+        <v>0.69578355765776856</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="6"/>
+        <v>1.1822293210935466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="4"/>
+        <v>0.49381344353073475</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="5"/>
+        <v>0.71012318425490017</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="6"/>
+        <v>1.1831920904841906</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="4"/>
+        <v>0.52883304847549106</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="5"/>
+        <v>0.72807134997176715</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="6"/>
+        <v>1.1845379196059103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2.7E-2</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="4"/>
+        <v>0.58223821971848744</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="5"/>
+        <v>0.75025055811956898</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="6"/>
+        <v>1.1864172415433072</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="4"/>
+        <v>0.65654392409494355</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>0.77722895966440053</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>1.1890376879320748</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="4"/>
+        <v>0.74774123246842827</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>0.80942194613119445</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>1.1926840617891317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0.03</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="4"/>
+        <v>0.84389735633121532</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>0.84697024753166472</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>1.1977436094654643</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>3.1E-2</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="4"/>
+        <v>0.93033281155535896</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>0.88961597315069985</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>1.2047363743243857</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="4"/>
+        <v>0.9975761550590152</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="5"/>
+        <v>0.93661329933274795</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>1.214348513359675</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="4"/>
+        <v>1.0442444034440659</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>0.98671698408948405</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>1.2274627208900333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="4"/>
+        <v>1.0741249487493276</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>1.0382789905018761</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>1.2451734805318957</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="4"/>
+        <v>1.0922809479963087</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>1.089448965723212</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>1.2687654636133125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="4"/>
+        <v>1.1029640161379357</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>1.1384317718607651</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>1.299622916331872</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="4"/>
+        <v>1.1091314711614539</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="5"/>
+        <v>1.1837291410214461</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>1.3390332668851304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="4"/>
+        <v>1.1126529480273446</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="5"/>
+        <v>1.2242999660771317</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>1.3878637175796509</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>3.9E-2</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="4"/>
+        <v>1.1146509760886341</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="5"/>
+        <v>1.2596097330142004</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>1.4461426678934421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.04</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="4"/>
+        <v>1.1157805648884822</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="5"/>
+        <v>1.2895814570784785</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>1.5126694038196657</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="4"/>
+        <v>1.1164178851059534</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="5"/>
+        <v>1.3144866288013253</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>1.5848592153464114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="4"/>
+        <v>1.116777052960203</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="5"/>
+        <v>1.3348184540132615</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="6"/>
+        <v>1.6590121146472514</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="4"/>
+        <v>1.1169793347340482</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="5"/>
+        <v>1.3511781163183065</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>1.7310105173229244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="4"/>
+        <v>1.11709321751511</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>1.3641889444405373</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>1.7971943026971129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="4"/>
+        <v>1.1171573193447129</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>1.374440757380295</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>1.8550420120664368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0.01</v>
+      </c>
+      <c r="B87">
+        <v>0.67513584999999998</v>
+      </c>
+      <c r="C87">
+        <v>2.8648159999999999E-2</v>
+      </c>
+      <c r="D87">
+        <v>1.7392499999999999E-3</v>
+      </c>
+      <c r="E87">
+        <v>0.44210398000000001</v>
+      </c>
+      <c r="H87">
+        <v>0.01</v>
+      </c>
+      <c r="I87">
+        <v>4.9002520000000001E-2</v>
+      </c>
+      <c r="J87">
+        <v>5.2354899999999998E-3</v>
+      </c>
+      <c r="K87">
+        <v>1.9109029999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0.02</v>
+      </c>
+      <c r="B88">
+        <v>0.76408604999999996</v>
+      </c>
+      <c r="C88">
+        <v>3.2342570000000001E-2</v>
+      </c>
+      <c r="D88">
+        <v>3.6933600000000001E-3</v>
+      </c>
+      <c r="E88">
+        <v>0.64540116999999997</v>
+      </c>
+      <c r="H88">
+        <v>0.02</v>
+      </c>
+      <c r="I88">
+        <v>4.527312E-2</v>
+      </c>
+      <c r="J88">
+        <v>3.7911300000000002E-3</v>
+      </c>
+      <c r="K88">
+        <v>2.6422259999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0.06</v>
+      </c>
+      <c r="B89">
+        <v>0.88073082000000003</v>
+      </c>
+      <c r="C89">
+        <v>4.0314999999999997E-2</v>
+      </c>
+      <c r="D89">
+        <v>2.9622300000000002E-3</v>
+      </c>
+      <c r="E89">
+        <v>1.1798225200000001</v>
+      </c>
+      <c r="H89">
+        <v>0.06</v>
+      </c>
+      <c r="I89">
+        <v>5.286424E-2</v>
+      </c>
+      <c r="J89">
+        <v>4.1425999999999998E-3</v>
+      </c>
+      <c r="K89">
+        <v>5.0032889999999997E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90">
+        <f>SLOPE(B87:B89,$A$87:$A$89)</f>
+        <v>3.7702479285714294</v>
+      </c>
+      <c r="C90">
+        <f>SLOPE(C87:C89,$A$87:$A$89)</f>
+        <v>0.22361507142857137</v>
+      </c>
+      <c r="D90">
+        <f>SLOPE(D87:D89,$A$87:$A$89)</f>
+        <v>1.2248785714285719E-2</v>
+      </c>
+      <c r="E90">
+        <f>SLOPE(E87:E89,$A$87:$A$89)</f>
+        <v>14.356131642857145</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90">
+        <f>SLOPE(I87:I89,$A$87:$A$89)</f>
+        <v>0.10938971428571428</v>
+      </c>
+      <c r="J90">
+        <f>SLOPE(J87:J89,$A$87:$A$89)</f>
+        <v>-1.310221428571429E-2</v>
+      </c>
+      <c r="K90">
+        <f>SLOPE(K87:K89,$A$87:$A$89)</f>
+        <v>0.6104167857142857</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91">
+        <f>INTERCEPT(B87:B89,$A$87:$A$89)</f>
+        <v>0.66021013547619045</v>
+      </c>
+      <c r="C91">
+        <f>INTERCEPT(C87:C89,$A$87:$A$89)</f>
+        <v>2.7060124523809528E-2</v>
+      </c>
+      <c r="D91">
+        <f>INTERCEPT(D87:D89,$A$87:$A$89)</f>
+        <v>2.4308164285714285E-3</v>
+      </c>
+      <c r="E91">
+        <f>INTERCEPT(E87:E89,$A$87:$A$89)</f>
+        <v>0.32509194071428577</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91">
+        <f>INTERCEPT(I87:I89,$A$87:$A$89)</f>
+        <v>4.5764935238095238E-2</v>
+      </c>
+      <c r="J91">
+        <f>INTERCEPT(J87:J89,$A$87:$A$89)</f>
+        <v>4.782806428571428E-3</v>
+      </c>
+      <c r="K91">
+        <f>INTERCEPT(K87:K89,$A$87:$A$89)</f>
+        <v>1.3542223095238094E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3428B906-60E9-4867-8466-966D23D05CE8}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,8 +4845,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -403,8 +4865,14 @@
       <c r="D2">
         <v>767.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0.70532271999999996</v>
+      </c>
+      <c r="F2">
+        <v>4.1978469999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -417,8 +4885,14 @@
       <c r="D3">
         <v>792.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0.50279980000000002</v>
+      </c>
+      <c r="F3">
+        <v>3.2738700000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.01</v>
       </c>
@@ -431,8 +4905,14 @@
       <c r="D4">
         <v>820.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0.43933242</v>
+      </c>
+      <c r="F4">
+        <v>2.8612149999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.01</v>
       </c>
@@ -445,8 +4925,14 @@
       <c r="D5">
         <v>876</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0.43206550999999999</v>
+      </c>
+      <c r="F5">
+        <v>2.1869179999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.01</v>
       </c>
@@ -459,8 +4945,14 @@
       <c r="D6">
         <v>908.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0.43714094999999997</v>
+      </c>
+      <c r="F6">
+        <v>2.1590560000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.01</v>
       </c>
@@ -473,8 +4965,14 @@
       <c r="D7">
         <v>982.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0.42645124000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.806089E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.01</v>
       </c>
@@ -487,12 +4985,14 @@
       <c r="D8">
         <v>998.4</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>0.45082712000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.9999240000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.01</v>
       </c>
@@ -505,236 +5005,175 @@
       <c r="D9">
         <v>1003.2</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>0.49105293</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.2837059999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.02</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>832.8</v>
+        <v>1018.5</v>
       </c>
       <c r="D10">
-        <v>736.5</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>769.6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.0030676300000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.5498270000000006E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.02</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>1018.5</v>
+        <v>1235.8</v>
       </c>
       <c r="D11">
-        <v>769.6</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>821.1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.79065830999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.4544790000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.02</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>1235.8</v>
+        <v>1453.4</v>
       </c>
       <c r="D12">
-        <v>821.1</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>917.3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.73298279</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.7778170000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.02</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>1453.4</v>
+        <v>1748.5</v>
       </c>
       <c r="D13">
-        <v>917.3</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>979.1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.65754561</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.6565600000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.02</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>1748.5</v>
+        <v>1988.1</v>
       </c>
       <c r="D14">
-        <v>979.1</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1014</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.65517417</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.8921840000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>1988.1</v>
+        <v>1140.4000000000001</v>
       </c>
       <c r="D15">
-        <v>1014</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>800.4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.5122611399999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.10179361000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0.06</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>878.2</v>
+        <v>1487.3</v>
       </c>
       <c r="D16">
-        <v>741</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>899.3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.2356109900000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6.055779E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.06</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>1140.4000000000001</v>
+        <v>1816.2</v>
       </c>
       <c r="D17">
-        <v>800.4</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="B18">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>1487.3</v>
-      </c>
-      <c r="D18">
-        <v>899.3</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="B19">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <v>1816.2</v>
-      </c>
-      <c r="D19">
         <v>990.1</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>873.2</v>
-      </c>
-      <c r="D20">
-        <v>742.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>1142.5999999999999</v>
-      </c>
-      <c r="D21">
-        <v>817.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="B22">
-        <v>25</v>
-      </c>
-      <c r="C22">
-        <v>1477.8</v>
-      </c>
-      <c r="D22">
-        <v>946.2</v>
+      <c r="E17" s="1">
+        <v>1.18414255</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.345573E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/Electrified Reactor/parameters.xlsx
+++ b/Project/Electrified Reactor/parameters.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\repos_python\Project\Electrified Reactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6376189D-3164-4540-A64A-2C0FB7B2BB53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C9745E-F36E-431A-B284-4964606B783C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +78,14 @@
   </si>
   <si>
     <t>[2.20232527 1.93726087 0.04981884 0.0055305 0.01857787]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS Tmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS Tavg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3276,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3362,7 +3371,7 @@
         <v>3.2738700000000003E-2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:J17" si="0">1/B3</f>
+        <f t="shared" ref="H3:H17" si="0">1/B3</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I3">
@@ -5176,4 +5185,462 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A19B01-1174-4447-A637-16FB1E66919D}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.01</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>954.4</v>
+      </c>
+      <c r="D2">
+        <v>767.4</v>
+      </c>
+      <c r="E2">
+        <v>0.70532271999999996</v>
+      </c>
+      <c r="F2">
+        <v>4.1978469999999997E-2</v>
+      </c>
+      <c r="G2">
+        <v>955</v>
+      </c>
+      <c r="H2">
+        <v>768.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>1140.3</v>
+      </c>
+      <c r="D3">
+        <v>792.7</v>
+      </c>
+      <c r="E3">
+        <v>0.50279980000000002</v>
+      </c>
+      <c r="F3">
+        <v>3.2738700000000003E-2</v>
+      </c>
+      <c r="G3">
+        <v>1132.9000000000001</v>
+      </c>
+      <c r="H3">
+        <v>793.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.01</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>1324.3</v>
+      </c>
+      <c r="D4">
+        <v>820.8</v>
+      </c>
+      <c r="E4">
+        <v>0.43933242</v>
+      </c>
+      <c r="F4">
+        <v>2.8612149999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>1320.3</v>
+      </c>
+      <c r="H4">
+        <v>822.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.01</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>1480.1</v>
+      </c>
+      <c r="D5">
+        <v>876</v>
+      </c>
+      <c r="E5">
+        <v>0.43206550999999999</v>
+      </c>
+      <c r="F5">
+        <v>2.1869179999999998E-2</v>
+      </c>
+      <c r="G5">
+        <v>1479.6</v>
+      </c>
+      <c r="H5">
+        <v>879.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.01</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>1627.5</v>
+      </c>
+      <c r="D6">
+        <v>908.8</v>
+      </c>
+      <c r="E6">
+        <v>0.43714094999999997</v>
+      </c>
+      <c r="F6">
+        <v>2.1590560000000002E-2</v>
+      </c>
+      <c r="G6">
+        <v>1628.4</v>
+      </c>
+      <c r="H6">
+        <v>912.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.01</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>1827.8</v>
+      </c>
+      <c r="D7">
+        <v>982.6</v>
+      </c>
+      <c r="E7">
+        <v>0.42645124000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.806089E-2</v>
+      </c>
+      <c r="G7">
+        <v>1822.9</v>
+      </c>
+      <c r="H7">
+        <v>986.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.01</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>1947.8</v>
+      </c>
+      <c r="D8">
+        <v>998.4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.45082712000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.9999240000000001E-2</v>
+      </c>
+      <c r="G8">
+        <v>1949.8</v>
+      </c>
+      <c r="H8">
+        <v>1004.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.01</v>
+      </c>
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>2025.6</v>
+      </c>
+      <c r="D9">
+        <v>1003.2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.49105293</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.2837059999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>2023.9</v>
+      </c>
+      <c r="H9">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>1018.5</v>
+      </c>
+      <c r="D10">
+        <v>769.6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.0030676300000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.5498270000000006E-2</v>
+      </c>
+      <c r="G10">
+        <v>1017.6</v>
+      </c>
+      <c r="H10">
+        <v>770.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1235.8</v>
+      </c>
+      <c r="D11">
+        <v>821.1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.79065830999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.4544790000000001E-2</v>
+      </c>
+      <c r="G11">
+        <v>1233.2</v>
+      </c>
+      <c r="H11">
+        <v>823.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>1453.4</v>
+      </c>
+      <c r="D12">
+        <v>917.3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.73298279</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.7778170000000001E-2</v>
+      </c>
+      <c r="G12">
+        <v>1443</v>
+      </c>
+      <c r="H12">
+        <v>918.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>1748.5</v>
+      </c>
+      <c r="D13">
+        <v>979.1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.65754561</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.6565600000000002E-2</v>
+      </c>
+      <c r="G13">
+        <v>1740.3</v>
+      </c>
+      <c r="H13">
+        <v>982.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>1988.1</v>
+      </c>
+      <c r="D14">
+        <v>1014</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.65517417</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.8921840000000001E-2</v>
+      </c>
+      <c r="G14">
+        <v>1985.1</v>
+      </c>
+      <c r="H14">
+        <v>1020.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>1140.4000000000001</v>
+      </c>
+      <c r="D15">
+        <v>800.4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.5122611399999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.10179361000000001</v>
+      </c>
+      <c r="G15">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="H15">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>1487.3</v>
+      </c>
+      <c r="D16">
+        <v>899.3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.2356109900000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6.055779E-2</v>
+      </c>
+      <c r="G16">
+        <v>1483.1</v>
+      </c>
+      <c r="H16">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B17">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>1816.2</v>
+      </c>
+      <c r="D17">
+        <v>990.1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.18414255</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.345573E-2</v>
+      </c>
+      <c r="G17">
+        <v>1809.6</v>
+      </c>
+      <c r="H17">
+        <v>995.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project/Electrified Reactor/parameters.xlsx
+++ b/Project/Electrified Reactor/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\repos_python\Project\Electrified Reactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C9745E-F36E-431A-B284-4964606B783C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D50351-289D-42FA-9A06-23D477465FE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,22 @@
   </si>
   <si>
     <t>CS Tavg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0D Tmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0D Tavg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitted Tmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitted Tavg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5189,15 +5205,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A19B01-1174-4447-A637-16FB1E66919D}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5211,19 +5231,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -5237,19 +5269,31 @@
         <v>767.4</v>
       </c>
       <c r="E2">
+        <v>954.4</v>
+      </c>
+      <c r="F2">
+        <v>767.4</v>
+      </c>
+      <c r="G2">
         <v>0.70532271999999996</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>4.1978469999999997E-2</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>955</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>768.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>951.6</v>
+      </c>
+      <c r="L2">
+        <v>765.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -5263,19 +5307,31 @@
         <v>792.7</v>
       </c>
       <c r="E3">
+        <v>1140.3</v>
+      </c>
+      <c r="F3">
+        <v>792.7</v>
+      </c>
+      <c r="G3">
         <v>0.50279980000000002</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>3.2738700000000003E-2</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1132.9000000000001</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>793.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>1111.5999999999999</v>
+      </c>
+      <c r="L3">
+        <v>797.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.01</v>
       </c>
@@ -5289,19 +5345,31 @@
         <v>820.8</v>
       </c>
       <c r="E4">
+        <v>1324.3</v>
+      </c>
+      <c r="F4">
+        <v>820.8</v>
+      </c>
+      <c r="G4">
         <v>0.43933242</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>2.8612149999999999E-2</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1320.3</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>822.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>1271.3</v>
+      </c>
+      <c r="L4">
+        <v>833.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.01</v>
       </c>
@@ -5315,19 +5383,31 @@
         <v>876</v>
       </c>
       <c r="E5">
+        <v>1480.1</v>
+      </c>
+      <c r="F5">
+        <v>876</v>
+      </c>
+      <c r="G5">
         <v>0.43206550999999999</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>2.1869179999999998E-2</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1479.6</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>879.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>1423.6</v>
+      </c>
+      <c r="L5">
+        <v>870.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.01</v>
       </c>
@@ -5341,19 +5421,31 @@
         <v>908.8</v>
       </c>
       <c r="E6">
+        <v>1627.5</v>
+      </c>
+      <c r="F6">
+        <v>908.8</v>
+      </c>
+      <c r="G6">
         <v>0.43714094999999997</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>2.1590560000000002E-2</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>1628.4</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>912.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>1580.6</v>
+      </c>
+      <c r="L6">
+        <v>909.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.01</v>
       </c>
@@ -5367,19 +5459,31 @@
         <v>982.6</v>
       </c>
       <c r="E7">
+        <v>1827.8</v>
+      </c>
+      <c r="F7">
+        <v>982.6</v>
+      </c>
+      <c r="G7">
         <v>0.42645124000000001</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.806089E-2</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1822.9</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>986.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>1747.9</v>
+      </c>
+      <c r="L7">
+        <v>950.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.01</v>
       </c>
@@ -5392,20 +5496,32 @@
       <c r="D8">
         <v>998.4</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
+        <v>1947.8</v>
+      </c>
+      <c r="F8">
+        <v>998.4</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.45082712000000003</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>1.9999240000000001E-2</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>1949.8</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>1004.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>1927.7</v>
+      </c>
+      <c r="L8">
+        <v>993.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.01</v>
       </c>
@@ -5418,20 +5534,32 @@
       <c r="D9">
         <v>1003.2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
+        <v>2025.6</v>
+      </c>
+      <c r="F9">
+        <v>1003.2</v>
+      </c>
+      <c r="G9" s="1">
         <v>0.49105293</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>2.2837059999999999E-2</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>2023.9</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>1009</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>2121</v>
+      </c>
+      <c r="L9">
+        <v>1039.5999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.02</v>
       </c>
@@ -5444,20 +5572,32 @@
       <c r="D10">
         <v>769.6</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
+        <v>1018.5</v>
+      </c>
+      <c r="F10">
+        <v>769.6</v>
+      </c>
+      <c r="G10" s="1">
         <v>1.0030676300000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>7.5498270000000006E-2</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1017.6</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>770.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>1018.7</v>
+      </c>
+      <c r="L10">
+        <v>769.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.02</v>
       </c>
@@ -5470,20 +5610,32 @@
       <c r="D11">
         <v>821.1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
+        <v>1235.8</v>
+      </c>
+      <c r="F11">
+        <v>821.1</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.79065830999999998</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>4.4544790000000001E-2</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1233.2</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>823.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>1253.9000000000001</v>
+      </c>
+      <c r="L11">
+        <v>825.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.02</v>
       </c>
@@ -5496,20 +5648,32 @@
       <c r="D12">
         <v>917.3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
+        <v>1453.4</v>
+      </c>
+      <c r="F12">
+        <v>917.3</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.73298279</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <v>2.7778170000000001E-2</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>1443</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>918.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>1543.1</v>
+      </c>
+      <c r="L12">
+        <v>891.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.02</v>
       </c>
@@ -5522,20 +5686,32 @@
       <c r="D13">
         <v>979.1</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
+        <v>1748.5</v>
+      </c>
+      <c r="F13">
+        <v>979.1</v>
+      </c>
+      <c r="G13" s="1">
         <v>0.65754561</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <v>2.6565600000000002E-2</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>1740.3</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>982.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>1809.5</v>
+      </c>
+      <c r="L13">
+        <v>958.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.02</v>
       </c>
@@ -5548,20 +5724,32 @@
       <c r="D14">
         <v>1014</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
+        <v>1988.1</v>
+      </c>
+      <c r="F14">
+        <v>1014</v>
+      </c>
+      <c r="G14" s="1">
         <v>0.65517417</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H14" s="1">
         <v>2.8921840000000001E-2</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1985.1</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>1020.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>2081</v>
+      </c>
+      <c r="L14">
+        <v>1028.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0.06</v>
       </c>
@@ -5574,20 +5762,32 @@
       <c r="D15">
         <v>800.4</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
+        <v>1140.4000000000001</v>
+      </c>
+      <c r="F15">
+        <v>800.4</v>
+      </c>
+      <c r="G15" s="1">
         <v>1.5122611399999999</v>
       </c>
-      <c r="F15" s="1">
+      <c r="H15" s="1">
         <v>0.10179361000000001</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>1136.5999999999999</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>802</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>1140.3</v>
+      </c>
+      <c r="L15">
+        <v>800.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0.06</v>
       </c>
@@ -5600,20 +5800,32 @@
       <c r="D16">
         <v>899.3</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
+        <v>1487.3</v>
+      </c>
+      <c r="F16">
+        <v>899.3</v>
+      </c>
+      <c r="G16" s="1">
         <v>1.2356109900000001</v>
       </c>
-      <c r="F16" s="1">
+      <c r="H16" s="1">
         <v>6.055779E-2</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>1483.1</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>903</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>1476.5</v>
+      </c>
+      <c r="L16">
+        <v>899.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0.06</v>
       </c>
@@ -5626,21 +5838,34 @@
       <c r="D17">
         <v>990.1</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
+        <v>1816.2</v>
+      </c>
+      <c r="F17">
+        <v>990.1</v>
+      </c>
+      <c r="G17" s="1">
         <v>1.18414255</v>
       </c>
-      <c r="F17" s="1">
+      <c r="H17" s="1">
         <v>5.345573E-2</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>1809.6</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>995.6</v>
+      </c>
+      <c r="K17">
+        <v>1802.2</v>
+      </c>
+      <c r="L17">
+        <v>993.3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/Electrified Reactor/parameters.xlsx
+++ b/Project/Electrified Reactor/parameters.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\repos_python\Project\Electrified Reactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D50351-289D-42FA-9A06-23D477465FE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290C9367-DD8D-4A53-BDD0-284F5246D9B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="실험결과 fitting" sheetId="3" r:id="rId3"/>
+    <sheet name="comsol 계산결과" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,12 +105,24 @@
     <t>fitted Tavg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>Tmax</t>
+  </si>
+  <si>
+    <t>Tavg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +146,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -148,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,11 +176,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -171,6 +206,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5207,7 +5245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A19B01-1174-4447-A637-16FB1E66919D}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -5868,4 +5906,1715 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA55BF9-0B21-49FB-A2CA-1B7E2B8365F7}">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="C2">
+        <v>745.68301759637905</v>
+      </c>
+      <c r="D2">
+        <v>730.13112993879906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0.02</v>
+      </c>
+      <c r="C3">
+        <v>751.70122826514012</v>
+      </c>
+      <c r="D3">
+        <v>730.35236790833756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.03</v>
+      </c>
+      <c r="C4">
+        <v>753.02372502894593</v>
+      </c>
+      <c r="D4">
+        <v>730.56401698881632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.04</v>
+      </c>
+      <c r="C5">
+        <v>754.17347486694928</v>
+      </c>
+      <c r="D5">
+        <v>730.80137017129675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.05</v>
+      </c>
+      <c r="C6">
+        <v>754.78228617219713</v>
+      </c>
+      <c r="D6">
+        <v>731.02587603756433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.06</v>
+      </c>
+      <c r="C7">
+        <v>755.3883090908547</v>
+      </c>
+      <c r="D7">
+        <v>731.28461425885234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C8">
+        <v>756.12280226395114</v>
+      </c>
+      <c r="D8">
+        <v>731.56170781827529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.08</v>
+      </c>
+      <c r="C9">
+        <v>757.14745891488644</v>
+      </c>
+      <c r="D9">
+        <v>731.8691998143313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.09</v>
+      </c>
+      <c r="C10">
+        <v>758.63146662831878</v>
+      </c>
+      <c r="D10">
+        <v>732.24156391796942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C11">
+        <v>760.78062822419395</v>
+      </c>
+      <c r="D11">
+        <v>732.68848760673336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.01</v>
+      </c>
+      <c r="C12">
+        <v>764.42124952843278</v>
+      </c>
+      <c r="D12">
+        <v>730.43297819150689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.02</v>
+      </c>
+      <c r="C13">
+        <v>790.03530843380611</v>
+      </c>
+      <c r="D13">
+        <v>731.23579269534866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0.03</v>
+      </c>
+      <c r="C14">
+        <v>807.20162597862532</v>
+      </c>
+      <c r="D14">
+        <v>732.3397545146679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.04</v>
+      </c>
+      <c r="C15">
+        <v>827.15511038886427</v>
+      </c>
+      <c r="D15">
+        <v>733.94888673093635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.05</v>
+      </c>
+      <c r="C16">
+        <v>848.75680553008397</v>
+      </c>
+      <c r="D16">
+        <v>736.24620696812167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.06</v>
+      </c>
+      <c r="C17">
+        <v>873.94297809682519</v>
+      </c>
+      <c r="D17">
+        <v>739.54749595882924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C18">
+        <v>905.19567746582823</v>
+      </c>
+      <c r="D18">
+        <v>744.44290972535975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0.08</v>
+      </c>
+      <c r="C19">
+        <v>937.69958033907369</v>
+      </c>
+      <c r="D19">
+        <v>751.06954047306806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0.09</v>
+      </c>
+      <c r="C20">
+        <v>969.56096223276199</v>
+      </c>
+      <c r="D20">
+        <v>760.10209271953931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C21">
+        <v>998.9949116312406</v>
+      </c>
+      <c r="D21">
+        <v>771.29664825170164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0.01</v>
+      </c>
+      <c r="C22">
+        <v>804.5175120953121</v>
+      </c>
+      <c r="D22">
+        <v>732.74324131690889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0.02</v>
+      </c>
+      <c r="C23">
+        <v>891.54779715239317</v>
+      </c>
+      <c r="D23">
+        <v>738.98188368307251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.03</v>
+      </c>
+      <c r="C24">
+        <v>961.27771093531317</v>
+      </c>
+      <c r="D24">
+        <v>748.28295869232147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0.04</v>
+      </c>
+      <c r="C25">
+        <v>1025.260123173498</v>
+      </c>
+      <c r="D25">
+        <v>761.87689631819126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.05</v>
+      </c>
+      <c r="C26">
+        <v>1082.730370538924</v>
+      </c>
+      <c r="D26">
+        <v>779.63343045453257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.06</v>
+      </c>
+      <c r="C27">
+        <v>1132.3017455470999</v>
+      </c>
+      <c r="D27">
+        <v>800.15773355313252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C28">
+        <v>1180.17114566809</v>
+      </c>
+      <c r="D28">
+        <v>822.15592359422669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>0.08</v>
+      </c>
+      <c r="C29">
+        <v>1223.2811031633889</v>
+      </c>
+      <c r="D29">
+        <v>842.57785880598635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>0.09</v>
+      </c>
+      <c r="C30">
+        <v>1262.4469687846611</v>
+      </c>
+      <c r="D30">
+        <v>860.12521111118701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C31">
+        <v>1290.6087292755831</v>
+      </c>
+      <c r="D31">
+        <v>874.24371806052443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.01</v>
+      </c>
+      <c r="C32">
+        <v>852.18649660472374</v>
+      </c>
+      <c r="D32">
+        <v>742.7616901571721</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>0.02</v>
+      </c>
+      <c r="C33">
+        <v>1016.224403260107</v>
+      </c>
+      <c r="D33">
+        <v>770.06463129065708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>0.03</v>
+      </c>
+      <c r="C34">
+        <v>1152.3168372704511</v>
+      </c>
+      <c r="D34">
+        <v>802.9307824714931</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>0.04</v>
+      </c>
+      <c r="C35">
+        <v>1275.3222018476749</v>
+      </c>
+      <c r="D35">
+        <v>837.90047983268084</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>0.05</v>
+      </c>
+      <c r="C36">
+        <v>1383.4881077248749</v>
+      </c>
+      <c r="D36">
+        <v>870.96694336942744</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>0.06</v>
+      </c>
+      <c r="C37">
+        <v>1466.465527399984</v>
+      </c>
+      <c r="D37">
+        <v>899.60551699325106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C38">
+        <v>1514.555931034477</v>
+      </c>
+      <c r="D38">
+        <v>921.74451183077906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>0.08</v>
+      </c>
+      <c r="C39">
+        <v>1541.6699280950349</v>
+      </c>
+      <c r="D39">
+        <v>938.99395790144683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>0.09</v>
+      </c>
+      <c r="C40">
+        <v>1557.62598971907</v>
+      </c>
+      <c r="D40">
+        <v>952.34623935938521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>30</v>
+      </c>
+      <c r="B41">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C41">
+        <v>1566.4611332333459</v>
+      </c>
+      <c r="D41">
+        <v>962.42561354963186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>0.01</v>
+      </c>
+      <c r="C42">
+        <v>952.1412514362579</v>
+      </c>
+      <c r="D42">
+        <v>766.32498720164244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>0.02</v>
+      </c>
+      <c r="C43">
+        <v>1249.131205856072</v>
+      </c>
+      <c r="D43">
+        <v>826.29411769656929</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>0.03</v>
+      </c>
+      <c r="C44">
+        <v>1479.621008648428</v>
+      </c>
+      <c r="D44">
+        <v>882.56628323289658</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>0.04</v>
+      </c>
+      <c r="C45">
+        <v>1633.726041740402</v>
+      </c>
+      <c r="D45">
+        <v>929.19235698756086</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>35</v>
+      </c>
+      <c r="B46">
+        <v>0.05</v>
+      </c>
+      <c r="C46">
+        <v>1728.3084588130939</v>
+      </c>
+      <c r="D46">
+        <v>965.51516894925089</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <v>0.06</v>
+      </c>
+      <c r="C47">
+        <v>1787.197613532993</v>
+      </c>
+      <c r="D47">
+        <v>993.424025026908</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>35</v>
+      </c>
+      <c r="B48">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C48">
+        <v>1825.3313591925939</v>
+      </c>
+      <c r="D48">
+        <v>1014.724844889192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>0.08</v>
+      </c>
+      <c r="C49">
+        <v>1847.9414418745091</v>
+      </c>
+      <c r="D49">
+        <v>1030.582121855773</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>35</v>
+      </c>
+      <c r="B50">
+        <v>0.09</v>
+      </c>
+      <c r="C50">
+        <v>1859.94561668557</v>
+      </c>
+      <c r="D50">
+        <v>1042.2662492749739</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C51">
+        <v>1870.287715731416</v>
+      </c>
+      <c r="D51">
+        <v>1052.672795504817</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>40</v>
+      </c>
+      <c r="B52">
+        <v>0.01</v>
+      </c>
+      <c r="C52">
+        <v>1105.318511228103</v>
+      </c>
+      <c r="D52">
+        <v>797.44847014464403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>0.02</v>
+      </c>
+      <c r="C53">
+        <v>1522.3415501288889</v>
+      </c>
+      <c r="D53">
+        <v>889.3069658556617</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>40</v>
+      </c>
+      <c r="B54">
+        <v>0.03</v>
+      </c>
+      <c r="C54">
+        <v>1796.1412495027789</v>
+      </c>
+      <c r="D54">
+        <v>964.43110079247276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>40</v>
+      </c>
+      <c r="B55">
+        <v>0.04</v>
+      </c>
+      <c r="C55">
+        <v>1958.8066844940311</v>
+      </c>
+      <c r="D55">
+        <v>1019.304834382643</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>40</v>
+      </c>
+      <c r="B56">
+        <v>0.05</v>
+      </c>
+      <c r="C56">
+        <v>2053.2795931100418</v>
+      </c>
+      <c r="D56">
+        <v>1057.7910949544739</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>40</v>
+      </c>
+      <c r="B57">
+        <v>0.06</v>
+      </c>
+      <c r="C57">
+        <v>2116.9639286577458</v>
+      </c>
+      <c r="D57">
+        <v>1087.158113571028</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>40</v>
+      </c>
+      <c r="B58">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C58">
+        <v>2161.6784731610601</v>
+      </c>
+      <c r="D58">
+        <v>1110.1801410622879</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>40</v>
+      </c>
+      <c r="B59">
+        <v>0.08</v>
+      </c>
+      <c r="C59">
+        <v>2193.26796990809</v>
+      </c>
+      <c r="D59">
+        <v>1128.659514338618</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>40</v>
+      </c>
+      <c r="B60">
+        <v>0.09</v>
+      </c>
+      <c r="C60">
+        <v>2209.09220780135</v>
+      </c>
+      <c r="D60">
+        <v>1142.1843973208911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>40</v>
+      </c>
+      <c r="B61">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C61">
+        <v>2221.4015671497991</v>
+      </c>
+      <c r="D61">
+        <v>1154.1740782951649</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>45</v>
+      </c>
+      <c r="B62">
+        <v>0.01</v>
+      </c>
+      <c r="C62">
+        <v>1266.1985881395019</v>
+      </c>
+      <c r="D62">
+        <v>833.53409130598629</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>45</v>
+      </c>
+      <c r="B63">
+        <v>0.02</v>
+      </c>
+      <c r="C63">
+        <v>1796.420281458574</v>
+      </c>
+      <c r="D63">
+        <v>958.93729005728619</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>45</v>
+      </c>
+      <c r="B64">
+        <v>0.03</v>
+      </c>
+      <c r="C64">
+        <v>2103.460109559277</v>
+      </c>
+      <c r="D64">
+        <v>1047.452706015941</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>45</v>
+      </c>
+      <c r="B65">
+        <v>0.04</v>
+      </c>
+      <c r="C65">
+        <v>2287.016753087039</v>
+      </c>
+      <c r="D65">
+        <v>1109.156892149801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>45</v>
+      </c>
+      <c r="B66">
+        <v>0.05</v>
+      </c>
+      <c r="C66">
+        <v>2410.867677253465</v>
+      </c>
+      <c r="D66">
+        <v>1155.399332198328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>45</v>
+      </c>
+      <c r="B67">
+        <v>0.06</v>
+      </c>
+      <c r="C67">
+        <v>2492.5093026632121</v>
+      </c>
+      <c r="D67">
+        <v>1189.936427032927</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>45</v>
+      </c>
+      <c r="B68">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C68">
+        <v>2547.2638696131298</v>
+      </c>
+      <c r="D68">
+        <v>1216.697244998212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>45</v>
+      </c>
+      <c r="B69">
+        <v>0.08</v>
+      </c>
+      <c r="C69">
+        <v>2582.9658256948901</v>
+      </c>
+      <c r="D69">
+        <v>1237.55136468568</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>45</v>
+      </c>
+      <c r="B70">
+        <v>0.09</v>
+      </c>
+      <c r="C70">
+        <v>2607.283162234392</v>
+      </c>
+      <c r="D70">
+        <v>1254.9030821661031</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>45</v>
+      </c>
+      <c r="B71">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C71">
+        <v>2619.288246887319</v>
+      </c>
+      <c r="D71">
+        <v>1268.799262637732</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>50</v>
+      </c>
+      <c r="B72">
+        <v>0.01</v>
+      </c>
+      <c r="C72">
+        <v>1421.924734261165</v>
+      </c>
+      <c r="D72">
+        <v>871.74558916147862</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>50</v>
+      </c>
+      <c r="B73">
+        <v>0.02</v>
+      </c>
+      <c r="C73">
+        <v>2072.1889069252752</v>
+      </c>
+      <c r="D73">
+        <v>1030.4654850747611</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>50</v>
+      </c>
+      <c r="B74">
+        <v>0.03</v>
+      </c>
+      <c r="C74">
+        <v>2443.7641370380911</v>
+      </c>
+      <c r="D74">
+        <v>1137.041532815543</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>50</v>
+      </c>
+      <c r="B75">
+        <v>0.04</v>
+      </c>
+      <c r="C75">
+        <v>2646.7280268155041</v>
+      </c>
+      <c r="D75">
+        <v>1204.9245273950471</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>50</v>
+      </c>
+      <c r="B76">
+        <v>0.05</v>
+      </c>
+      <c r="C76">
+        <v>2805.485377655456</v>
+      </c>
+      <c r="D76">
+        <v>1261.033998523036</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>50</v>
+      </c>
+      <c r="B77">
+        <v>0.06</v>
+      </c>
+      <c r="C77">
+        <v>2903.5922338487771</v>
+      </c>
+      <c r="D77">
+        <v>1301.3176844419061</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>50</v>
+      </c>
+      <c r="B78">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C78">
+        <v>2969.2511220315369</v>
+      </c>
+      <c r="D78">
+        <v>1332.485175250722</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>50</v>
+      </c>
+      <c r="B79">
+        <v>0.08</v>
+      </c>
+      <c r="C79">
+        <v>3015.8753132828251</v>
+      </c>
+      <c r="D79">
+        <v>1358.1656886839121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>50</v>
+      </c>
+      <c r="B80">
+        <v>0.09</v>
+      </c>
+      <c r="C80">
+        <v>3041.121913739782</v>
+      </c>
+      <c r="D80">
+        <v>1377.8954775122579</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>50</v>
+      </c>
+      <c r="B81">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C81">
+        <v>3056.2039711814041</v>
+      </c>
+      <c r="D81">
+        <v>1394.6147834977501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>55</v>
+      </c>
+      <c r="B82">
+        <v>0.01</v>
+      </c>
+      <c r="C82">
+        <v>1579.4016064423049</v>
+      </c>
+      <c r="D82">
+        <v>911.0792140893567</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>55</v>
+      </c>
+      <c r="B83">
+        <v>0.02</v>
+      </c>
+      <c r="C83">
+        <v>2361.7023278076981</v>
+      </c>
+      <c r="D83">
+        <v>1104.5475410268709</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>55</v>
+      </c>
+      <c r="B84">
+        <v>0.03</v>
+      </c>
+      <c r="C84">
+        <v>2804.2430383206829</v>
+      </c>
+      <c r="D84">
+        <v>1230.0970631358689</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>55</v>
+      </c>
+      <c r="B85">
+        <v>0.04</v>
+      </c>
+      <c r="C85">
+        <v>3075.0050874120702</v>
+      </c>
+      <c r="D85">
+        <v>1316.191251868232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>55</v>
+      </c>
+      <c r="B86">
+        <v>0.05</v>
+      </c>
+      <c r="C86">
+        <v>3253.274519312642</v>
+      </c>
+      <c r="D86">
+        <v>1379.2049616424929</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>55</v>
+      </c>
+      <c r="B87">
+        <v>0.06</v>
+      </c>
+      <c r="C87">
+        <v>3373.1674985405612</v>
+      </c>
+      <c r="D87">
+        <v>1427.199263328386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>55</v>
+      </c>
+      <c r="B88">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C88">
+        <v>3455.2910505371092</v>
+      </c>
+      <c r="D88">
+        <v>1465.1178563901999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>55</v>
+      </c>
+      <c r="B89">
+        <v>0.08</v>
+      </c>
+      <c r="C89">
+        <v>3489.172416142394</v>
+      </c>
+      <c r="D89">
+        <v>1489.8342584355221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>55</v>
+      </c>
+      <c r="B90">
+        <v>0.09</v>
+      </c>
+      <c r="C90">
+        <v>3521.9329342807109</v>
+      </c>
+      <c r="D90">
+        <v>1514.2181945476129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>55</v>
+      </c>
+      <c r="B91">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C91">
+        <v>3540.9206638137539</v>
+      </c>
+      <c r="D91">
+        <v>1534.4603730232971</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>60</v>
+      </c>
+      <c r="B92">
+        <v>0.01</v>
+      </c>
+      <c r="C92">
+        <v>1740.336646734183</v>
+      </c>
+      <c r="D92">
+        <v>951.04288265659318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>60</v>
+      </c>
+      <c r="B93">
+        <v>0.02</v>
+      </c>
+      <c r="C93">
+        <v>2671.8285039616521</v>
+      </c>
+      <c r="D93">
+        <v>1182.5619904974239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>60</v>
+      </c>
+      <c r="B94">
+        <v>0.03</v>
+      </c>
+      <c r="C94">
+        <v>3177.8377222476279</v>
+      </c>
+      <c r="D94">
+        <v>1325.8374415711201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>60</v>
+      </c>
+      <c r="B95">
+        <v>0.04</v>
+      </c>
+      <c r="C95">
+        <v>3510.9900983375828</v>
+      </c>
+      <c r="D95">
+        <v>1429.2967590592471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>60</v>
+      </c>
+      <c r="B96">
+        <v>0.05</v>
+      </c>
+      <c r="C96">
+        <v>3738.316598291869</v>
+      </c>
+      <c r="D96">
+        <v>1506.951063865409</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>60</v>
+      </c>
+      <c r="B97">
+        <v>0.06</v>
+      </c>
+      <c r="C97">
+        <v>3879.6309212625661</v>
+      </c>
+      <c r="D97">
+        <v>1562.955659081734</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>60</v>
+      </c>
+      <c r="B98">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C98">
+        <v>3950.6783587801601</v>
+      </c>
+      <c r="D98">
+        <v>1600.5693817826741</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>60</v>
+      </c>
+      <c r="B99">
+        <v>0.08</v>
+      </c>
+      <c r="C99">
+        <v>4010.2132573986969</v>
+      </c>
+      <c r="D99">
+        <v>1634.930540537885</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>60</v>
+      </c>
+      <c r="B100">
+        <v>0.09</v>
+      </c>
+      <c r="C100">
+        <v>4049.7101595005929</v>
+      </c>
+      <c r="D100">
+        <v>1663.906272261311</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>60</v>
+      </c>
+      <c r="B101">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C101">
+        <v>4070.7958934201069</v>
+      </c>
+      <c r="D101">
+        <v>1687.4600831018849</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>65</v>
+      </c>
+      <c r="B102">
+        <v>0.01</v>
+      </c>
+      <c r="C102">
+        <v>1926.7452582392889</v>
+      </c>
+      <c r="D102">
+        <v>996.40463494154415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>65</v>
+      </c>
+      <c r="B103">
+        <v>0.02</v>
+      </c>
+      <c r="C103">
+        <v>3015.852234717559</v>
+      </c>
+      <c r="D103">
+        <v>1268.142442120683</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>65</v>
+      </c>
+      <c r="B104">
+        <v>0.03</v>
+      </c>
+      <c r="C104">
+        <v>3633.5111188372321</v>
+      </c>
+      <c r="D104">
+        <v>1440.6859850007299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>65</v>
+      </c>
+      <c r="B105">
+        <v>0.04</v>
+      </c>
+      <c r="C105">
+        <v>3985.0426149010559</v>
+      </c>
+      <c r="D105">
+        <v>1551.8948498042071</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>65</v>
+      </c>
+      <c r="B106">
+        <v>0.05</v>
+      </c>
+      <c r="C106">
+        <v>4262.8082747966891</v>
+      </c>
+      <c r="D106">
+        <v>1645.109790977591</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>65</v>
+      </c>
+      <c r="B107">
+        <v>0.06</v>
+      </c>
+      <c r="C107">
+        <v>4430.477309405419</v>
+      </c>
+      <c r="D107">
+        <v>1710.885408986207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>65</v>
+      </c>
+      <c r="B108">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C108">
+        <v>4501.874793627002</v>
+      </c>
+      <c r="D108">
+        <v>1751.675254593207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>65</v>
+      </c>
+      <c r="B109">
+        <v>0.08</v>
+      </c>
+      <c r="C109">
+        <v>4582.6010759137107</v>
+      </c>
+      <c r="D109">
+        <v>1794.408022535104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>65</v>
+      </c>
+      <c r="B110">
+        <v>0.09</v>
+      </c>
+      <c r="C110">
+        <v>4636.8214178385606</v>
+      </c>
+      <c r="D110">
+        <v>1830.73039177589</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>65</v>
+      </c>
+      <c r="B111">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C111">
+        <v>4661.968260306674</v>
+      </c>
+      <c r="D111">
+        <v>1858.8318448931179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>70</v>
+      </c>
+      <c r="B112">
+        <v>0.01</v>
+      </c>
+      <c r="C112">
+        <v>2115.1499017680289</v>
+      </c>
+      <c r="D112">
+        <v>1041.9546002236359</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>70</v>
+      </c>
+      <c r="B113">
+        <v>0.02</v>
+      </c>
+      <c r="C113">
+        <v>3384.957089736768</v>
+      </c>
+      <c r="D113">
+        <v>1359.249462515188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>70</v>
+      </c>
+      <c r="B114">
+        <v>0.03</v>
+      </c>
+      <c r="C114">
+        <v>4091.2775798459711</v>
+      </c>
+      <c r="D114">
+        <v>1556.2751886279559</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>70</v>
+      </c>
+      <c r="B115">
+        <v>0.04</v>
+      </c>
+      <c r="C115">
+        <v>4511.4383630925213</v>
+      </c>
+      <c r="D115">
+        <v>1687.0503137035621</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>70</v>
+      </c>
+      <c r="B116">
+        <v>0.05</v>
+      </c>
+      <c r="C116">
+        <v>4818.774576621523</v>
+      </c>
+      <c r="D116">
+        <v>1791.158377288195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>70</v>
+      </c>
+      <c r="B117">
+        <v>0.06</v>
+      </c>
+      <c r="C117">
+        <v>5009.55489902506</v>
+      </c>
+      <c r="D117">
+        <v>1866.0797882061449</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>70</v>
+      </c>
+      <c r="B118">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C118">
+        <v>5136.1047795237628</v>
+      </c>
+      <c r="D118">
+        <v>1924.8174969111319</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>70</v>
+      </c>
+      <c r="B119">
+        <v>0.08</v>
+      </c>
+      <c r="C119">
+        <v>5214.4972041439596</v>
+      </c>
+      <c r="D119">
+        <v>1971.096960506738</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>70</v>
+      </c>
+      <c r="B120">
+        <v>0.09</v>
+      </c>
+      <c r="C120">
+        <v>5262.0442540640242</v>
+      </c>
+      <c r="D120">
+        <v>2008.8961704195499</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>70</v>
+      </c>
+      <c r="B121">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="C121">
+        <v>5261.699663592135</v>
+      </c>
+      <c r="D121">
+        <v>2032.606563808238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>